--- a/output/article/Supp-mat1a_areas.xlsx
+++ b/output/article/Supp-mat1a_areas.xlsx
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Mean French Polynesia</t>
   </si>
   <si>
-    <t xml:space="preserve">Fold-change ratio (Fig 2)</t>
+    <t xml:space="preserve">Fold-change ratio (Fig 1)</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
